--- a/音频DEMO处理工具UI设计_v1_1022.xlsx
+++ b/音频DEMO处理工具UI设计_v1_1022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="17060"/>
+    <workbookView windowWidth="23170" windowHeight="17060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>音频DEMO处理工具</t>
   </si>
@@ -31,7 +31,7 @@
     <t>c:\user\cxz\desktop\pj1_demo</t>
   </si>
   <si>
-    <t>筛选后缀名</t>
+    <t>筛选文件类型</t>
   </si>
   <si>
     <t>□</t>
@@ -43,6 +43,27 @@
     <t>mp3</t>
   </si>
   <si>
+    <t>打开水印文件</t>
+  </si>
+  <si>
+    <t>c:\user\cxz\desktop\SDMZ.wav</t>
+  </si>
+  <si>
+    <t>水印起始位置</t>
+  </si>
+  <si>
+    <t>秒   水印间隔</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>水印音量调整</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
     <t>输出文件选项</t>
   </si>
   <si>
@@ -58,27 +79,6 @@
     <t>kbps</t>
   </si>
   <si>
-    <t>打开水印文件</t>
-  </si>
-  <si>
-    <t>c:\user\cxz\desktop\SDMZ.wav</t>
-  </si>
-  <si>
-    <t>水印起始位置</t>
-  </si>
-  <si>
-    <t>秒   水印间隔</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>水印音量调整</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
     <t>文件名前缀</t>
   </si>
   <si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>后缀位数</t>
+  </si>
+  <si>
+    <t>元数据</t>
   </si>
   <si>
     <t>开始转换</t>
@@ -108,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -122,6 +125,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,51 +134,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,38 +232,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -238,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +278,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,140 +462,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -522,6 +525,37 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -551,6 +585,17 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +645,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,46 +681,11 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,36 +706,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,98 +745,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +849,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,40 +864,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,11 +1237,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="40510" topLeftCell="R1" activePane="topLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1212,164 +1270,173 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:5">
+    <row r="5" ht="19" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D6" s="7">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row r="7" ht="20" customHeight="1" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="10">
+        <v>-6</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="22" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
-        <v>-6</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" ht="31" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:5">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="31" customHeight="1" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" ht="119" customHeight="1" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+    </row>
+    <row r="12" ht="119" customHeight="1" spans="1:5">
+      <c r="A12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
